--- a/reporting/report01032023.xlsx
+++ b/reporting/report01032023.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCMDB\reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B442BA-EA82-4CD6-B00C-B7C7F61D265C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1640B66D-7426-456B-A2C7-C11517C8A899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -108,10 +109,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,13 +195,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -203,6 +217,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,307 +509,380 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" customWidth="1"/>
-    <col min="14" max="15" width="16.7109375" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" customWidth="1"/>
+    <col min="3" max="5" width="14.7265625" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" customWidth="1"/>
+    <col min="7" max="10" width="14.7265625" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" customWidth="1"/>
+    <col min="12" max="13" width="14.7265625" customWidth="1"/>
+    <col min="14" max="15" width="16.7265625" customWidth="1"/>
+    <col min="16" max="16" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="7"/>
+      <c r="N1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="O1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="3" t="s">
+      <c r="K2" s="8"/>
+      <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>51</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>5630</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>2296</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>60</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>58</v>
       </c>
-      <c r="I3" s="5">
-        <v>322</v>
-      </c>
-      <c r="J3" s="5">
+      <c r="I3" s="11">
+        <v>240</v>
+      </c>
+      <c r="J3" s="4">
         <v>46</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>0</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <v>22477436.07</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <v>12997427.58</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="5">
         <f>447866916.84-L3</f>
         <v>425389480.76999998</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="5">
         <f>313656908.46-M3</f>
         <v>300659480.88</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>6000</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>4900</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>120</v>
       </c>
-      <c r="H4" s="5">
-        <v>669</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="H4" s="11">
+        <v>214</v>
+      </c>
+      <c r="I4" s="4">
         <v>284</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>302</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <f>128+10</f>
         <v>138</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>4500</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>0</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>100</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>12</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>110</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>0</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>0</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>25092003</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <v>13159367.07</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="5">
         <f>242901981.16-L5</f>
         <v>217809978.16</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <f>151815034.98-M5</f>
         <v>138655667.91</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>950</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>940</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>80</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>21</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>29</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>35</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>0</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>13274081.539999999</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>13274081.539999999</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="5">
         <f>43710528.18-L6</f>
         <v>30436446.640000001</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <f>36561611.81-M6</f>
         <v>23287530.270000003</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C837542-F5FB-42D6-B87C-B59CE1C38BB5}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
+        <v>44486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
+        <f>A2-A1+1</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>44787</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>44860</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
+        <f>A5-A4+1</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>44983</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
+        <f>A8-A7+1</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
+        <f>A3+A6+A9</f>
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/reporting/report01032023.xlsx
+++ b/reporting/report01032023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCMDB\reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1640B66D-7426-456B-A2C7-C11517C8A899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8B2745-FDAC-4DF6-8369-4B70B749E13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -212,19 +212,19 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,63 +509,63 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" customWidth="1"/>
-    <col min="3" max="5" width="14.7265625" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" customWidth="1"/>
-    <col min="7" max="10" width="14.7265625" customWidth="1"/>
-    <col min="11" max="11" width="8.7265625" customWidth="1"/>
-    <col min="12" max="13" width="14.7265625" customWidth="1"/>
-    <col min="14" max="15" width="16.7265625" customWidth="1"/>
-    <col min="16" max="16" width="14.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" customWidth="1"/>
+    <col min="14" max="15" width="16.7109375" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="9"/>
       <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="11"/>
+      <c r="N1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="8"/>
-    </row>
-    <row r="2" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
@@ -587,7 +587,7 @@
       <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="8"/>
+      <c r="K2" s="9"/>
       <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
@@ -601,7 +601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -626,7 +626,7 @@
       <c r="H3" s="4">
         <v>58</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="8">
         <v>240</v>
       </c>
       <c r="J3" s="4">
@@ -650,7 +650,7 @@
         <v>300659480.88</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -672,7 +672,7 @@
       <c r="G4" s="4">
         <v>120</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="8">
         <v>214</v>
       </c>
       <c r="I4" s="4">
@@ -685,12 +685,22 @@
         <f>128+10</f>
         <v>138</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L4" s="5">
+        <v>37914937.41505897</v>
+      </c>
+      <c r="M4" s="5">
+        <v>28501945.788538069</v>
+      </c>
+      <c r="N4" s="5">
+        <f>429554057.567932-L4</f>
+        <v>391639120.15287304</v>
+      </c>
+      <c r="O4" s="5">
+        <f>280854221.15544-M4</f>
+        <v>252352275.3669019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -739,7 +749,7 @@
         <v>138655667.91</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -788,26 +798,26 @@
         <v>23287530.270000003</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -822,61 +832,61 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6">
         <v>44385</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>44486</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <f>A2-A1+1</f>
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>44787</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>44860</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <f>A5-A4+1</f>
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>44946</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>44983</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <f>A8-A7+1</f>
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <f>A3+A6+A9</f>
         <v>214</v>
       </c>
